--- a/Walkthrough.xlsx
+++ b/Walkthrough.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="112">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -310,10 +310,25 @@
     <t xml:space="preserve">Pool</t>
   </si>
   <si>
+    <t xml:space="preserve">dawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool, uniform</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pool Guy</t>
   </si>
   <si>
+    <t xml:space="preserve">afternoon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pool Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool, group, public</t>
   </si>
   <si>
     <t xml:space="preserve">HomoAndros Progression</t>
@@ -573,11 +588,11 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.09"/>
@@ -2123,55 +2138,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="D46" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="H46" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="I46" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="K46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M46" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="D47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="H47" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="I47" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="K47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M47" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M47" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="D48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="H48" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>1</v>
@@ -2179,13 +2239,13 @@
       <c r="L48" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M48" s="4" t="n">
-        <v>0</v>
+      <c r="M48" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2202,10 +2262,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -2220,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>1</v>
@@ -2240,10 +2300,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2</v>
@@ -2258,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>1</v>
@@ -2278,10 +2338,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3</v>
@@ -2299,10 +2359,10 @@
         <v>38</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>1</v>
@@ -2316,10 +2376,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -2337,10 +2397,10 @@
         <v>17</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>1</v>
@@ -2354,10 +2414,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>5</v>
@@ -2375,10 +2435,10 @@
         <v>22</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>1</v>
@@ -2392,10 +2452,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>6</v>
@@ -2413,10 +2473,10 @@
         <v>22</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>1</v>
@@ -2430,10 +2490,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>7</v>
@@ -2451,10 +2511,10 @@
         <v>22</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>1</v>
@@ -2468,10 +2528,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>8</v>
@@ -2489,10 +2549,10 @@
         <v>22</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K57" s="3" t="n">
         <v>1</v>
@@ -2506,10 +2566,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>9</v>
@@ -2527,10 +2587,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K58" s="3" t="n">
         <v>1</v>
@@ -2544,10 +2604,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>10</v>
@@ -2568,7 +2628,7 @@
         <v>81</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>1</v>
@@ -2606,7 +2666,7 @@
         <v>81</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K60" s="3" t="n">
         <v>1</v>
@@ -2644,7 +2704,7 @@
         <v>81</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K61" s="3" t="n">
         <v>1</v>
@@ -2682,7 +2742,7 @@
         <v>81</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K62" s="3" t="n">
         <v>1</v>
@@ -2720,7 +2780,7 @@
         <v>81</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K63" s="3" t="n">
         <v>1</v>
@@ -2758,7 +2818,7 @@
         <v>81</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K64" s="3" t="n">
         <v>1</v>
@@ -2796,7 +2856,7 @@
         <v>81</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K65" s="3" t="n">
         <v>1</v>
@@ -2834,7 +2894,7 @@
         <v>81</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K66" s="3" t="n">
         <v>1</v>
@@ -2872,7 +2932,7 @@
         <v>81</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K67" s="3" t="n">
         <v>1</v>
@@ -2910,7 +2970,7 @@
         <v>81</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>1</v>
@@ -2948,7 +3008,7 @@
         <v>81</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K69" s="3" t="n">
         <v>1</v>
@@ -2962,7 +3022,7 @@
     </row>
     <row r="71" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2979,12 +3039,12 @@
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Walkthrough.xlsx
+++ b/Walkthrough.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="116">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Player Position</t>
   </si>
   <si>
-    <t xml:space="preserve">Kink</t>
+    <t xml:space="preserve">Kink/Themes</t>
   </si>
   <si>
     <t xml:space="preserve">Note</t>
@@ -181,9 +181,18 @@
     <t xml:space="preserve">Room 47</t>
   </si>
   <si>
+    <t xml:space="preserve">Wednesday Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral,anal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vers</t>
   </si>
   <si>
+    <t xml:space="preserve">Straight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Occupations</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t xml:space="preserve">uniform</t>
   </si>
   <si>
+    <t xml:space="preserve">uniform, group, twins</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waiter</t>
   </si>
   <si>
@@ -274,9 +286,6 @@
     <t xml:space="preserve">Midnight</t>
   </si>
   <si>
-    <t xml:space="preserve">oral,anal</t>
-  </si>
-  <si>
     <t xml:space="preserve">gangbang, rape</t>
   </si>
   <si>
@@ -302,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trans Gym Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shower, gym, trans</t>
   </si>
   <si>
     <t xml:space="preserve">Pool Boy</t>
@@ -586,13 +598,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.09"/>
@@ -1247,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>51</v>
       </c>
@@ -1257,8 +1269,23 @@
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>1</v>
@@ -1266,11 +1293,11 @@
       <c r="L19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>51</v>
       </c>
@@ -1280,68 +1307,104 @@
       <c r="C20" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="K20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -1353,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>1</v>
@@ -1361,25 +1424,25 @@
       <c r="L23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>0</v>
+      <c r="M23" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -1391,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>1</v>
@@ -1399,25 +1462,37 @@
       <c r="L24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M24" s="4" t="n">
-        <v>0</v>
+      <c r="M24" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="K25" s="3" t="n">
         <v>1</v>
@@ -1425,25 +1500,25 @@
       <c r="L25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M25" s="4" t="n">
-        <v>0</v>
+      <c r="M25" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
@@ -1455,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26" s="3" t="n">
         <v>1</v>
@@ -1469,31 +1544,31 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K27" s="3" t="n">
         <v>1</v>
@@ -1507,31 +1582,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>1</v>
@@ -1545,31 +1620,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
@@ -1583,19 +1658,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -1607,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K30" s="3" t="n">
         <v>1</v>
@@ -1619,127 +1694,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+    <row r="31" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D33" s="0" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K34" s="3" t="n">
         <v>1</v>
@@ -1753,22 +1828,19 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>18</v>
@@ -1777,7 +1849,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K35" s="3" t="n">
         <v>1</v>
@@ -1791,28 +1863,31 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="K36" s="3" t="n">
         <v>1</v>
@@ -1826,10 +1901,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>1</v>
@@ -1838,57 +1913,57 @@
         <v>32</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="I38" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K38" s="3" t="n">
         <v>1</v>
@@ -1896,37 +1971,35 @@
       <c r="L38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M38" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="0" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K39" s="3" t="n">
         <v>1</v>
@@ -1934,35 +2007,35 @@
       <c r="L39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M39" s="4" t="n">
-        <v>0</v>
+      <c r="M39" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>1</v>
@@ -1976,29 +2049,28 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>91</v>
+      </c>
       <c r="D41" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K41" s="3" t="n">
         <v>1</v>
@@ -2012,28 +2084,28 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>1</v>
@@ -2047,28 +2119,28 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="E43" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K43" s="3" t="n">
         <v>1</v>
@@ -2082,28 +2154,28 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>1</v>
@@ -2115,53 +2187,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="I45" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="K45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M45" s="4" t="n">
-        <v>0</v>
+      <c r="M45" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>28</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K46" s="3" t="n">
         <v>1</v>
@@ -2175,28 +2259,28 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>1</v>
@@ -2208,67 +2292,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+    <row r="48" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>32</v>
@@ -2280,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>1</v>
@@ -2300,13 +2387,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>32</v>
@@ -2318,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>1</v>
@@ -2338,13 +2425,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>32</v>
@@ -2356,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>1</v>
@@ -2376,13 +2463,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>32</v>
@@ -2394,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>1</v>
@@ -2414,13 +2501,13 @@
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>32</v>
@@ -2435,10 +2522,10 @@
         <v>22</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>1</v>
@@ -2452,13 +2539,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>32</v>
@@ -2473,10 +2560,10 @@
         <v>22</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>1</v>
@@ -2490,13 +2577,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>32</v>
@@ -2511,10 +2598,10 @@
         <v>22</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>1</v>
@@ -2528,13 +2615,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>32</v>
@@ -2549,10 +2636,10 @@
         <v>22</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K57" s="3" t="n">
         <v>1</v>
@@ -2566,13 +2653,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>32</v>
@@ -2587,10 +2674,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K58" s="3" t="n">
         <v>1</v>
@@ -2604,13 +2691,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>32</v>
@@ -2625,10 +2712,10 @@
         <v>22</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>1</v>
@@ -2642,13 +2729,13 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>32</v>
@@ -2663,10 +2750,10 @@
         <v>22</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K60" s="3" t="n">
         <v>1</v>
@@ -2680,13 +2767,13 @@
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>32</v>
@@ -2701,10 +2788,10 @@
         <v>22</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K61" s="3" t="n">
         <v>1</v>
@@ -2718,13 +2805,13 @@
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>32</v>
@@ -2739,10 +2826,10 @@
         <v>22</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K62" s="3" t="n">
         <v>1</v>
@@ -2756,13 +2843,13 @@
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>32</v>
@@ -2777,10 +2864,10 @@
         <v>22</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K63" s="3" t="n">
         <v>1</v>
@@ -2794,13 +2881,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>32</v>
@@ -2815,10 +2902,10 @@
         <v>22</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K64" s="3" t="n">
         <v>1</v>
@@ -2832,13 +2919,13 @@
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>32</v>
@@ -2853,10 +2940,10 @@
         <v>22</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K65" s="3" t="n">
         <v>1</v>
@@ -2870,13 +2957,13 @@
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>32</v>
@@ -2891,10 +2978,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K66" s="3" t="n">
         <v>1</v>
@@ -2908,13 +2995,13 @@
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>32</v>
@@ -2929,10 +3016,10 @@
         <v>22</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K67" s="3" t="n">
         <v>1</v>
@@ -2946,13 +3033,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>32</v>
@@ -2967,10 +3054,10 @@
         <v>22</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>1</v>
@@ -2982,101 +3069,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+    <row r="70" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D73" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A70:M70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Walkthrough.xlsx
+++ b/Walkthrough.xlsx
@@ -503,10 +503,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,6 +512,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -600,11 +600,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M69" activeCellId="0" sqref="M69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.09"/>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>37</v>
       </c>
@@ -1010,14 +1010,14 @@
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
@@ -1036,14 +1036,14 @@
       <c r="K12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
@@ -1062,36 +1062,36 @@
       <c r="K13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="n">
-        <v>0</v>
+      <c r="L13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -1108,31 +1108,31 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="3" t="n">
@@ -1146,31 +1146,31 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K16" s="3" t="n">
@@ -1184,31 +1184,31 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K17" s="3" t="n">
@@ -1222,31 +1222,31 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="n">
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="K18" s="3" t="n">
@@ -1281,7 +1281,7 @@
       <c r="G19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -1359,7 +1359,7 @@
       <c r="B22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -1397,7 +1397,7 @@
       <c r="B23" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -1435,7 +1435,7 @@
       <c r="B24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -1473,7 +1473,7 @@
       <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -1511,7 +1511,7 @@
       <c r="B26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1549,7 +1549,7 @@
       <c r="B27" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -1587,7 +1587,7 @@
       <c r="B28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1625,7 +1625,7 @@
       <c r="B29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -1663,7 +1663,7 @@
       <c r="B30" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -1695,21 +1695,21 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1718,7 +1718,7 @@
       <c r="B32" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="0" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="B33" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1795,7 +1795,7 @@
       <c r="B34" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -1833,7 +1833,7 @@
       <c r="B35" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -1868,7 +1868,7 @@
       <c r="B36" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -1906,7 +1906,7 @@
       <c r="B37" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -1944,7 +1944,7 @@
       <c r="B38" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -1982,7 +1982,7 @@
       <c r="B39" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="0" t="s">
         <v>87</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="B40" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="0" t="s">
         <v>87</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>108</v>
       </c>
@@ -2343,11 +2343,11 @@
       <c r="L49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M49" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M49" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>108</v>
       </c>
@@ -2381,11 +2381,11 @@
       <c r="L50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M50" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M50" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>108</v>
       </c>
@@ -2419,11 +2419,11 @@
       <c r="L51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M51" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M51" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>108</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="L52" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M52" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>108</v>
       </c>
@@ -2495,11 +2495,11 @@
       <c r="L53" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M53" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M53" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>108</v>
       </c>
@@ -2533,11 +2533,11 @@
       <c r="L54" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M54" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M54" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>108</v>
       </c>
@@ -2571,11 +2571,11 @@
       <c r="L55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M55" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>108</v>
       </c>
@@ -2609,11 +2609,11 @@
       <c r="L56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M56" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>108</v>
       </c>
@@ -2647,11 +2647,11 @@
       <c r="L57" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M57" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M57" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>108</v>
       </c>
@@ -2685,11 +2685,11 @@
       <c r="L58" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M58" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>81</v>
       </c>
@@ -2723,11 +2723,11 @@
       <c r="L59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M59" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>81</v>
       </c>
@@ -2761,11 +2761,11 @@
       <c r="L60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M60" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M60" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>81</v>
       </c>
@@ -2799,11 +2799,11 @@
       <c r="L61" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M61" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M61" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>81</v>
       </c>
@@ -2837,11 +2837,11 @@
       <c r="L62" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M62" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M62" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>81</v>
       </c>
@@ -2875,11 +2875,11 @@
       <c r="L63" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M63" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M63" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>81</v>
       </c>
@@ -2913,11 +2913,11 @@
       <c r="L64" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M64" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M64" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>81</v>
       </c>
@@ -2951,11 +2951,11 @@
       <c r="L65" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M65" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M65" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>81</v>
       </c>
@@ -2989,11 +2989,11 @@
       <c r="L66" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M66" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M66" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>81</v>
       </c>
@@ -3027,11 +3027,11 @@
       <c r="L67" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M67" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M67" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>81</v>
       </c>
@@ -3065,8 +3065,8 @@
       <c r="L68" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M68" s="4" t="n">
-        <v>0</v>
+      <c r="M68" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3112,10 @@
       <c r="K73" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L73" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4" t="n">
+      <c r="L73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Walkthrough.xlsx
+++ b/Walkthrough.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="118">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -151,6 +151,15 @@
     <t xml:space="preserve">Top</t>
   </si>
   <si>
+    <t xml:space="preserve">twink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral,anal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twink, toys</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucker</t>
   </si>
   <si>
@@ -182,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wednesday Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oral,anal</t>
   </si>
   <si>
     <t xml:space="preserve">Vers</t>
@@ -600,11 +606,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M69" activeCellId="0" sqref="M69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.09"/>
@@ -1004,8 +1010,20 @@
       <c r="D11" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
@@ -1030,9 +1048,21 @@
       <c r="D12" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="I12" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="K12" s="3" t="n">
         <v>1</v>
       </c>
@@ -1043,21 +1073,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>42</v>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="3" t="n">
         <v>1</v>
@@ -1071,10 +1113,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
@@ -1089,12 +1131,12 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="3" t="n">
@@ -1107,33 +1149,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>1</v>
@@ -1147,10 +1189,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>2</v>
@@ -1159,19 +1201,19 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>1</v>
@@ -1185,31 +1227,31 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="n">
         <v>1</v>
@@ -1222,32 +1264,32 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>1</v>
@@ -1261,32 +1303,32 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="K19" s="3" t="n">
         <v>1</v>
       </c>
@@ -1297,76 +1339,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="0" t="n">
+    <row r="20" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -1378,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>1</v>
@@ -1392,19 +1434,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -1416,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>1</v>
@@ -1430,19 +1472,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -1451,10 +1493,10 @@
         <v>22</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>1</v>
@@ -1468,19 +1510,19 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
@@ -1492,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25" s="3" t="n">
         <v>1</v>
@@ -1506,31 +1548,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26" s="3" t="n">
         <v>1</v>
@@ -1544,31 +1586,31 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K27" s="3" t="n">
         <v>1</v>
@@ -1582,31 +1624,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>1</v>
@@ -1620,19 +1662,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
@@ -1644,7 +1686,7 @@
         <v>42</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
@@ -1656,127 +1698,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+    <row r="30" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" s="0" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K33" s="3" t="n">
         <v>1</v>
@@ -1790,22 +1832,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>18</v>
@@ -1814,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="K34" s="3" t="n">
         <v>1</v>
@@ -1828,28 +1867,31 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K35" s="3" t="n">
         <v>1</v>
@@ -1863,10 +1905,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
@@ -1875,19 +1917,19 @@
         <v>32</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K36" s="3" t="n">
         <v>1</v>
@@ -1901,10 +1943,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
@@ -1919,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" s="3" t="n">
         <v>1</v>
@@ -1939,31 +1981,29 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="0" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K38" s="3" t="n">
         <v>1</v>
@@ -1977,29 +2017,29 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K39" s="3" t="n">
         <v>1</v>
@@ -2013,29 +2053,28 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>93</v>
+      </c>
       <c r="D40" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>1</v>
@@ -2049,28 +2088,28 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K41" s="3" t="n">
         <v>1</v>
@@ -2084,28 +2123,28 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>1</v>
@@ -2119,28 +2158,28 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K43" s="3" t="n">
         <v>1</v>
@@ -2154,28 +2193,28 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>1</v>
@@ -2189,25 +2228,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>28</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>101</v>
@@ -2224,28 +2263,28 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>28</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K46" s="3" t="n">
         <v>1</v>
@@ -2257,67 +2296,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+    <row r="47" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>32</v>
@@ -2329,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K49" s="3" t="n">
         <v>1</v>
@@ -2349,13 +2391,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>32</v>
@@ -2367,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>1</v>
@@ -2387,13 +2429,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>32</v>
@@ -2405,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>1</v>
@@ -2425,13 +2467,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>32</v>
@@ -2443,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>1</v>
@@ -2463,13 +2505,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>32</v>
@@ -2484,10 +2526,10 @@
         <v>22</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>1</v>
@@ -2501,13 +2543,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>32</v>
@@ -2522,10 +2564,10 @@
         <v>22</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>1</v>
@@ -2539,13 +2581,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>32</v>
@@ -2560,10 +2602,10 @@
         <v>22</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>1</v>
@@ -2577,13 +2619,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>32</v>
@@ -2598,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>1</v>
@@ -2615,13 +2657,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>32</v>
@@ -2636,10 +2678,10 @@
         <v>22</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K57" s="3" t="n">
         <v>1</v>
@@ -2653,13 +2695,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>32</v>
@@ -2674,10 +2716,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K58" s="3" t="n">
         <v>1</v>
@@ -2691,13 +2733,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>32</v>
@@ -2712,10 +2754,10 @@
         <v>22</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>1</v>
@@ -2729,13 +2771,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>32</v>
@@ -2750,10 +2792,10 @@
         <v>22</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K60" s="3" t="n">
         <v>1</v>
@@ -2767,13 +2809,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>32</v>
@@ -2788,10 +2830,10 @@
         <v>22</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K61" s="3" t="n">
         <v>1</v>
@@ -2805,13 +2847,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>32</v>
@@ -2826,10 +2868,10 @@
         <v>22</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K62" s="3" t="n">
         <v>1</v>
@@ -2843,13 +2885,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>32</v>
@@ -2864,10 +2906,10 @@
         <v>22</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K63" s="3" t="n">
         <v>1</v>
@@ -2881,13 +2923,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>32</v>
@@ -2902,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K64" s="3" t="n">
         <v>1</v>
@@ -2919,13 +2961,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>32</v>
@@ -2940,10 +2982,10 @@
         <v>22</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K65" s="3" t="n">
         <v>1</v>
@@ -2957,13 +2999,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>32</v>
@@ -2978,10 +3020,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K66" s="3" t="n">
         <v>1</v>
@@ -2995,13 +3037,13 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>32</v>
@@ -3016,10 +3058,10 @@
         <v>22</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K67" s="3" t="n">
         <v>1</v>
@@ -3031,102 +3073,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+    <row r="69" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D72" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A69:M69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
